--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_捷豹组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_捷豹组.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 3.3.0/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.2.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.3.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -368,13 +373,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在测</t>
-    <rPh sb="0" eb="1">
-      <t>zai'ce</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cntr_SaleContractUserRel表中补全合同中的租客信息.sql</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -402,8 +400,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -685,7 +683,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="345">
+  <cellStyleXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,6 +1713,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1871,7 +1887,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="345">
+  <cellStyles count="351">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="6"/>
     <cellStyle name="常规 3" xfId="1"/>
@@ -2047,6 +2063,9 @@
     <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
@@ -2217,6 +2236,9 @@
     <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2559,39 +2581,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="O8" sqref="O8:O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="19" customWidth="1"/>
     <col min="4" max="4" width="18" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="19" customWidth="1"/>
     <col min="6" max="6" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="19" customWidth="1"/>
     <col min="8" max="8" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="20" customWidth="1"/>
     <col min="14" max="14" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="23" customWidth="1"/>
     <col min="17" max="17" width="17" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="66.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -2700,7 +2722,7 @@
       <c r="S2" s="18"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -2750,7 +2772,7 @@
       <c r="S3" s="18"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -2786,7 +2808,7 @@
         <v>33</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N4" s="13">
         <v>42539</v>
@@ -2800,7 +2822,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v>33</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N5" s="13">
         <v>42539</v>
@@ -2850,7 +2872,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -2886,7 +2908,7 @@
         <v>33</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N6" s="13">
         <v>42539</v>
@@ -2900,7 +2922,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="18">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -2936,7 +2958,7 @@
         <v>33</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N7" s="13">
         <v>42541</v>
@@ -2950,7 +2972,7 @@
       <c r="S7" s="35"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="33">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -2986,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N8" s="13">
         <v>42541</v>
@@ -3000,7 +3022,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="48" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -3037,36 +3059,40 @@
       <c r="L9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
+      <c r="M9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42541</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="41" t="s">
         <v>49</v>
       </c>
       <c r="S9" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" s="47"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="13">
         <v>42544</v>
@@ -3076,25 +3102,33 @@
         <v>42544</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42541</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -3118,7 +3152,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -3142,7 +3176,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -3166,7 +3200,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -3190,7 +3224,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -3214,7 +3248,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -3238,7 +3272,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -3262,7 +3296,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -3286,7 +3320,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -3310,7 +3344,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -3334,7 +3368,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="33"/>
       <c r="C21" s="12"/>
@@ -3356,7 +3390,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -3378,7 +3412,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -3400,7 +3434,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -3422,7 +3456,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -3444,7 +3478,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -3466,7 +3500,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -3488,7 +3522,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -3510,7 +3544,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -3532,7 +3566,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -3554,7 +3588,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -3576,7 +3610,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -3598,7 +3632,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -3620,7 +3654,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -3642,7 +3676,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -3664,7 +3698,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -3686,7 +3720,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -3708,7 +3742,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -3730,7 +3764,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -3752,7 +3786,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -3774,7 +3808,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -3796,7 +3830,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -3818,7 +3852,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -3840,7 +3874,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -3862,7 +3896,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -3884,7 +3918,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -3906,7 +3940,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -3928,7 +3962,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -3950,7 +3984,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -3972,7 +4006,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="8"/>
       <c r="C50" s="12"/>
@@ -3994,7 +4028,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="8"/>
       <c r="C51" s="12"/>
@@ -4016,7 +4050,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="8"/>
       <c r="C52" s="12"/>
@@ -4038,7 +4072,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="8"/>
       <c r="C53" s="12"/>
@@ -4060,7 +4094,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="8"/>
       <c r="C54" s="12"/>
@@ -4082,7 +4116,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="8"/>
       <c r="C55" s="12"/>
@@ -4104,7 +4138,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="8"/>
       <c r="C56" s="12"/>
@@ -4126,7 +4160,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="57" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="8"/>
       <c r="C57" s="12"/>
@@ -4148,7 +4182,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="58" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="8"/>
       <c r="C58" s="12"/>
@@ -4170,7 +4204,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="59" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="17"/>
       <c r="C59" s="9"/>
@@ -4192,7 +4226,7 @@
       <c r="S59" s="17"/>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="60" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="17"/>
       <c r="C60" s="9"/>
@@ -4214,7 +4248,7 @@
       <c r="S60" s="17"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5">
+    <row r="61" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -4235,7 +4269,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5">
+    <row r="62" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -4256,7 +4290,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5">
+    <row r="63" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -4277,7 +4311,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5">
+    <row r="64" spans="1:20" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -4298,7 +4332,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -4319,7 +4353,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -4340,7 +4374,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -4361,7 +4395,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -4382,7 +4416,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -4403,7 +4437,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -4424,7 +4458,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -4445,7 +4479,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -4466,7 +4500,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -4487,7 +4521,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -4508,7 +4542,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4529,7 +4563,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -4550,7 +4584,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -4571,7 +4605,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -4592,7 +4626,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -4613,7 +4647,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -4634,7 +4668,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -4655,7 +4689,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -4676,7 +4710,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -4697,7 +4731,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -4718,7 +4752,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -4739,7 +4773,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -4760,7 +4794,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -4781,7 +4815,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -4802,7 +4836,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -4823,7 +4857,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -4844,7 +4878,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -4865,7 +4899,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -4886,7 +4920,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -4907,7 +4941,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -4928,7 +4962,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -4949,7 +4983,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -4970,7 +5004,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -4991,7 +5025,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -5012,7 +5046,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -5033,7 +5067,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -5054,7 +5088,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -5075,7 +5109,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -5096,7 +5130,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -5117,7 +5151,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -5138,7 +5172,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -5159,7 +5193,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -5180,7 +5214,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -5201,7 +5235,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -5222,7 +5256,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -5243,7 +5277,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -5264,7 +5298,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -5285,7 +5319,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -5306,7 +5340,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -5327,7 +5361,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -5348,7 +5382,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -5369,7 +5403,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -5390,7 +5424,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -5411,7 +5445,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -5432,7 +5466,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -5453,7 +5487,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -5474,7 +5508,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -5495,7 +5529,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -5516,7 +5550,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -5537,7 +5571,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -5558,7 +5592,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -5579,7 +5613,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -5600,7 +5634,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -5621,7 +5655,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -5642,7 +5676,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -5663,7 +5697,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -5684,7 +5718,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -5705,7 +5739,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -5726,7 +5760,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -5747,7 +5781,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -5768,7 +5802,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -5789,7 +5823,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -5810,7 +5844,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -5831,7 +5865,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -5852,7 +5886,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -5873,7 +5907,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -5894,7 +5928,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -5915,7 +5949,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -5936,7 +5970,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -5957,7 +5991,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -5978,7 +6012,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -5999,7 +6033,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -6020,7 +6054,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -6041,7 +6075,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -6062,7 +6096,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -6083,7 +6117,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -6104,7 +6138,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -6125,7 +6159,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -6146,7 +6180,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -6167,7 +6201,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -6188,7 +6222,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -6209,7 +6243,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -6230,7 +6264,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -6251,7 +6285,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -6272,7 +6306,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -6293,7 +6327,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -6314,7 +6348,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -6335,7 +6369,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -6356,7 +6390,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -6377,7 +6411,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -6398,7 +6432,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -6419,7 +6453,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -6440,7 +6474,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -6461,7 +6495,7 @@
       <c r="R167" s="7"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -6482,7 +6516,7 @@
       <c r="R168" s="7"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -6503,7 +6537,7 @@
       <c r="R169" s="7"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -6524,7 +6558,7 @@
       <c r="R170" s="7"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -6545,7 +6579,7 @@
       <c r="R171" s="7"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -6566,7 +6600,7 @@
       <c r="R172" s="7"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -6587,7 +6621,7 @@
       <c r="R173" s="7"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -6608,7 +6642,7 @@
       <c r="R174" s="7"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -6629,7 +6663,7 @@
       <c r="R175" s="7"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -6650,7 +6684,7 @@
       <c r="R176" s="7"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -6671,7 +6705,7 @@
       <c r="R177" s="7"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -6692,7 +6726,7 @@
       <c r="R178" s="7"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -6713,7 +6747,7 @@
       <c r="R179" s="7"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -6734,7 +6768,7 @@
       <c r="R180" s="7"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -6755,7 +6789,7 @@
       <c r="R181" s="7"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -6773,7 +6807,7 @@
       <c r="O182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -6791,7 +6825,7 @@
       <c r="O183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -6809,7 +6843,7 @@
       <c r="O184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -6827,7 +6861,7 @@
       <c r="O185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -6845,7 +6879,7 @@
       <c r="O186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -6863,7 +6897,7 @@
       <c r="O187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -6881,7 +6915,7 @@
       <c r="O188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -6899,7 +6933,7 @@
       <c r="O189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -6917,7 +6951,7 @@
       <c r="O190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -6935,7 +6969,7 @@
       <c r="O191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -6953,7 +6987,7 @@
       <c r="O192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -6971,7 +7005,7 @@
       <c r="O193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -6989,7 +7023,7 @@
       <c r="O194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -7007,7 +7041,7 @@
       <c r="O195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -7025,7 +7059,7 @@
       <c r="O196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -7043,7 +7077,7 @@
       <c r="O197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -7061,7 +7095,7 @@
       <c r="O198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -7079,7 +7113,7 @@
       <c r="O199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -7097,7 +7131,7 @@
       <c r="O200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -7115,7 +7149,7 @@
       <c r="O201" s="4"/>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -7133,7 +7167,7 @@
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -7151,7 +7185,7 @@
       <c r="O203" s="4"/>
       <c r="S203" s="4"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -7169,7 +7203,7 @@
       <c r="O204" s="4"/>
       <c r="S204" s="4"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -7187,7 +7221,7 @@
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -7205,7 +7239,7 @@
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -7223,7 +7257,7 @@
       <c r="O207" s="4"/>
       <c r="S207" s="4"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
       <c r="B208" s="4"/>
       <c r="C208" s="7"/>
@@ -7241,7 +7275,7 @@
       <c r="O208" s="4"/>
       <c r="S208" s="4"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
       <c r="B209" s="4"/>
       <c r="C209" s="7"/>
@@ -7259,7 +7293,7 @@
       <c r="O209" s="4"/>
       <c r="S209" s="4"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
       <c r="B210" s="4"/>
       <c r="C210" s="7"/>
@@ -7277,7 +7311,7 @@
       <c r="O210" s="4"/>
       <c r="S210" s="4"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
       <c r="B211" s="4"/>
       <c r="C211" s="7"/>
@@ -7295,7 +7329,7 @@
       <c r="O211" s="4"/>
       <c r="S211" s="4"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="7"/>
       <c r="B212" s="4"/>
       <c r="C212" s="7"/>
@@ -7313,7 +7347,7 @@
       <c r="O212" s="4"/>
       <c r="S212" s="4"/>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
       <c r="B213" s="4"/>
       <c r="C213" s="7"/>
@@ -7331,7 +7365,7 @@
       <c r="O213" s="4"/>
       <c r="S213" s="4"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="7"/>
       <c r="B214" s="4"/>
       <c r="C214" s="7"/>
@@ -7349,7 +7383,7 @@
       <c r="O214" s="4"/>
       <c r="S214" s="4"/>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
       <c r="B215" s="4"/>
       <c r="C215" s="7"/>
@@ -7367,7 +7401,7 @@
       <c r="O215" s="4"/>
       <c r="S215" s="4"/>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
       <c r="B216" s="4"/>
       <c r="C216" s="7"/>
@@ -7393,25 +7427,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -7437,7 +7471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -7447,7 +7481,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -7457,7 +7491,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -7467,7 +7501,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -7477,7 +7511,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -7487,7 +7521,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -7497,7 +7531,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -7507,7 +7541,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -7517,7 +7551,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -7527,7 +7561,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -7537,7 +7571,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -7547,7 +7581,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -7557,7 +7591,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -7567,7 +7601,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -7577,7 +7611,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -7587,7 +7621,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -7597,7 +7631,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -7607,7 +7641,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
